--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H2">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>1171.390567437292</v>
+        <v>0.1368774770093333</v>
       </c>
       <c r="R2">
-        <v>1171.390567437292</v>
+        <v>1.231897293084</v>
       </c>
       <c r="S2">
-        <v>0.002672894523875454</v>
+        <v>2.810444308805859E-07</v>
       </c>
       <c r="T2">
-        <v>0.002672894523875454</v>
+        <v>2.810444308805858E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H3">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>1653.707155008913</v>
+        <v>0.06281556084133334</v>
       </c>
       <c r="R3">
-        <v>1653.707155008913</v>
+        <v>0.5653400475720001</v>
       </c>
       <c r="S3">
-        <v>0.003773450906632478</v>
+        <v>1.289763950419218E-07</v>
       </c>
       <c r="T3">
-        <v>0.003773450906632478</v>
+        <v>1.289763950419218E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H4">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>1254.496784328419</v>
+        <v>86.196523344414</v>
       </c>
       <c r="R4">
-        <v>1254.496784328419</v>
+        <v>775.768710099726</v>
       </c>
       <c r="S4">
-        <v>0.002862527391172887</v>
+        <v>0.0001769834846208052</v>
       </c>
       <c r="T4">
-        <v>0.002862527391172887</v>
+        <v>0.0001769834846208052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H5">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>28.25710468499551</v>
+        <v>116.267773888864</v>
       </c>
       <c r="R5">
-        <v>28.25710468499551</v>
+        <v>1046.409964999776</v>
       </c>
       <c r="S5">
-        <v>6.447743602574569E-05</v>
+        <v>0.0002387274448382791</v>
       </c>
       <c r="T5">
-        <v>6.447743602574569E-05</v>
+        <v>0.000238727444838279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>880.664880322459</v>
+        <v>1.414043</v>
       </c>
       <c r="H6">
-        <v>880.664880322459</v>
+        <v>4.242129</v>
       </c>
       <c r="I6">
-        <v>0.3972397107657614</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J6">
-        <v>0.3972397107657614</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>49643.17318879157</v>
+        <v>89.64425618474867</v>
       </c>
       <c r="R6">
-        <v>49643.17318879157</v>
+        <v>806.798305662738</v>
       </c>
       <c r="S6">
-        <v>0.1132764506157978</v>
+        <v>0.0001840625609970749</v>
       </c>
       <c r="T6">
-        <v>0.1132764506157978</v>
+        <v>0.0001840625609970749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>880.664880322459</v>
+        <v>1.414043</v>
       </c>
       <c r="H7">
-        <v>880.664880322459</v>
+        <v>4.242129</v>
       </c>
       <c r="I7">
-        <v>0.3972397107657614</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J7">
-        <v>0.3972397107657614</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>70083.6023285172</v>
+        <v>2.302058704566333</v>
       </c>
       <c r="R7">
-        <v>70083.6023285172</v>
+        <v>20.718528341097</v>
       </c>
       <c r="S7">
-        <v>0.1599176927702099</v>
+        <v>4.726714669312819E-06</v>
       </c>
       <c r="T7">
-        <v>0.1599176927702099</v>
+        <v>4.726714669312819E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H8">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>53165.18918659614</v>
+        <v>2.196750393313333</v>
       </c>
       <c r="R8">
-        <v>53165.18918659614</v>
+        <v>19.77075353982</v>
       </c>
       <c r="S8">
-        <v>0.1213130334048576</v>
+        <v>4.510489801279365E-06</v>
       </c>
       <c r="T8">
-        <v>0.1213130334048576</v>
+        <v>4.510489801279366E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H9">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>1197.527435072282</v>
+        <v>1.008128663673333</v>
       </c>
       <c r="R9">
-        <v>1197.527435072282</v>
+        <v>9.073157973059999</v>
       </c>
       <c r="S9">
-        <v>0.002732533974896186</v>
+        <v>2.069945711500498E-06</v>
       </c>
       <c r="T9">
-        <v>0.002732533974896186</v>
+        <v>2.069945711500498E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>437.056994102845</v>
+        <v>22.694015</v>
       </c>
       <c r="H10">
-        <v>437.056994102845</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J10">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>24636.94935089927</v>
+        <v>1383.37037397447</v>
       </c>
       <c r="R10">
-        <v>24636.94935089927</v>
+        <v>12450.33336577023</v>
       </c>
       <c r="S10">
-        <v>0.05621691759827222</v>
+        <v>0.002840412812578417</v>
       </c>
       <c r="T10">
-        <v>0.05621691759827222</v>
+        <v>0.002840412812578417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>437.056994102845</v>
+        <v>22.694015</v>
       </c>
       <c r="H11">
-        <v>437.056994102845</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J11">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>34781.14008405261</v>
+        <v>1865.98470106672</v>
       </c>
       <c r="R11">
-        <v>34781.14008405261</v>
+        <v>16793.86230960048</v>
       </c>
       <c r="S11">
-        <v>0.07936406647715818</v>
+        <v>0.003831343328365245</v>
       </c>
       <c r="T11">
-        <v>0.07936406647715818</v>
+        <v>0.003831343328365245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>437.056994102845</v>
+        <v>22.694015</v>
       </c>
       <c r="H12">
-        <v>437.056994102845</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J12">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>26384.857959017</v>
+        <v>1438.703133158276</v>
       </c>
       <c r="R12">
-        <v>26384.857959017</v>
+        <v>12948.32819842449</v>
       </c>
       <c r="S12">
-        <v>0.060205318629274</v>
+        <v>0.002954025104049899</v>
       </c>
       <c r="T12">
-        <v>0.060205318629274</v>
+        <v>0.002954025104049899</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>437.056994102845</v>
+        <v>22.694015</v>
       </c>
       <c r="H13">
-        <v>437.056994102845</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J13">
-        <v>0.1971424066121462</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>594.3097684748608</v>
+        <v>36.94580346729833</v>
       </c>
       <c r="R13">
-        <v>594.3097684748608</v>
+        <v>332.512231205685</v>
       </c>
       <c r="S13">
-        <v>0.001356103907441771</v>
+        <v>7.585917373524365E-05</v>
       </c>
       <c r="T13">
-        <v>0.001356103907441771</v>
+        <v>7.585917373524366E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>826.3828658964979</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H14">
-        <v>826.3828658964979</v>
+        <v>2900.468536</v>
       </c>
       <c r="I14">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J14">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N14">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q14">
-        <v>46583.29024875906</v>
+        <v>93.58716233113954</v>
       </c>
       <c r="R14">
-        <v>46583.29024875906</v>
+        <v>842.284460980256</v>
       </c>
       <c r="S14">
-        <v>0.1062943691636602</v>
+        <v>0.0001921583546816153</v>
       </c>
       <c r="T14">
-        <v>0.1062943691636602</v>
+        <v>0.0001921583546816153</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>826.3828658964979</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H15">
-        <v>826.3828658964979</v>
+        <v>2900.468536</v>
       </c>
       <c r="I15">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J15">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N15">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q15">
-        <v>65763.82167457885</v>
+        <v>42.94884898396089</v>
       </c>
       <c r="R15">
-        <v>65763.82167457885</v>
+        <v>386.539640855648</v>
       </c>
       <c r="S15">
-        <v>0.1500607600141989</v>
+        <v>8.818495988825435E-05</v>
       </c>
       <c r="T15">
-        <v>0.1500607600141989</v>
+        <v>8.818495988825435E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>826.3828658964979</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H16">
-        <v>826.3828658964979</v>
+        <v>2900.468536</v>
       </c>
       <c r="I16">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J16">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N16">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q16">
-        <v>49888.21785406262</v>
+        <v>58935.10166076096</v>
       </c>
       <c r="R16">
-        <v>49888.21785406262</v>
+        <v>530415.9149468488</v>
       </c>
       <c r="S16">
-        <v>0.1138355967811462</v>
+        <v>0.1210088209326698</v>
       </c>
       <c r="T16">
-        <v>0.1138355967811462</v>
+        <v>0.1210088209326698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>826.3828658964979</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H17">
-        <v>826.3828658964979</v>
+        <v>2900.468536</v>
       </c>
       <c r="I17">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J17">
-        <v>0.3727548332690497</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N17">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O17">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P17">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q17">
-        <v>1123.714793103096</v>
+        <v>79495.70131304645</v>
       </c>
       <c r="R17">
-        <v>1123.714793103096</v>
+        <v>715461.311817418</v>
       </c>
       <c r="S17">
-        <v>0.002564107310044474</v>
+        <v>0.1632249850094384</v>
       </c>
       <c r="T17">
-        <v>0.002564107310044474</v>
+        <v>0.1632249850094384</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.0757428876562</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H18">
-        <v>52.0757428876562</v>
+        <v>2900.468536</v>
       </c>
       <c r="I18">
-        <v>0.02348969909533606</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J18">
-        <v>0.02348969909533606</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N18">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q18">
-        <v>2935.515178214345</v>
+        <v>61292.41814593258</v>
       </c>
       <c r="R18">
-        <v>2935.515178214345</v>
+        <v>551631.7633133933</v>
       </c>
       <c r="S18">
-        <v>0.006698297444692746</v>
+        <v>0.1258489939432762</v>
       </c>
       <c r="T18">
-        <v>0.006698297444692746</v>
+        <v>0.1258489939432762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.0757428876562</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H19">
-        <v>52.0757428876562</v>
+        <v>2900.468536</v>
       </c>
       <c r="I19">
-        <v>0.02348969909533606</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J19">
-        <v>0.02348969909533606</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N19">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q19">
-        <v>4144.204835515035</v>
+        <v>1573.985336282694</v>
       </c>
       <c r="R19">
-        <v>4144.204835515035</v>
+        <v>14165.86802654425</v>
       </c>
       <c r="S19">
-        <v>0.009456301526227975</v>
+        <v>0.003231794030071097</v>
       </c>
       <c r="T19">
-        <v>0.009456301526227975</v>
+        <v>0.003231794030071098</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.0757428876562</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H20">
-        <v>52.0757428876562</v>
+        <v>1341.191803</v>
       </c>
       <c r="I20">
-        <v>0.02348969909533606</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J20">
-        <v>0.02348969909533606</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N20">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q20">
-        <v>3143.780096739</v>
+        <v>43.27519275822088</v>
       </c>
       <c r="R20">
-        <v>3143.780096739</v>
+        <v>389.476734823988</v>
       </c>
       <c r="S20">
-        <v>0.007173519096389818</v>
+        <v>8.885502703379408E-05</v>
       </c>
       <c r="T20">
-        <v>0.007173519096389818</v>
+        <v>8.885502703379407E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>447.0639343333333</v>
+      </c>
+      <c r="H21">
+        <v>1341.191803</v>
+      </c>
+      <c r="I21">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="J21">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.133268</v>
+      </c>
+      <c r="O21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q21">
+        <v>19.85977213357822</v>
+      </c>
+      <c r="R21">
+        <v>178.737949202204</v>
+      </c>
+      <c r="S21">
+        <v>4.077718612770035E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.077718612770034E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>447.0639343333333</v>
+      </c>
+      <c r="H22">
+        <v>1341.191803</v>
+      </c>
+      <c r="I22">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="J22">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N22">
+        <v>182.872494</v>
+      </c>
+      <c r="O22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q22">
+        <v>27251.89888299629</v>
+      </c>
+      <c r="R22">
+        <v>245267.0899469666</v>
+      </c>
+      <c r="S22">
+        <v>0.05595511094542398</v>
+      </c>
+      <c r="T22">
+        <v>0.05595511094542398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>447.0639343333333</v>
+      </c>
+      <c r="H23">
+        <v>1341.191803</v>
+      </c>
+      <c r="I23">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="J23">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N23">
+        <v>246.670944</v>
+      </c>
+      <c r="O23">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P23">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q23">
+        <v>36759.22757011912</v>
+      </c>
+      <c r="R23">
+        <v>330833.048131072</v>
+      </c>
+      <c r="S23">
+        <v>0.07547608575039431</v>
+      </c>
+      <c r="T23">
+        <v>0.07547608575039431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>447.0639343333333</v>
+      </c>
+      <c r="H24">
+        <v>1341.191803</v>
+      </c>
+      <c r="I24">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="J24">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N24">
+        <v>190.187122</v>
+      </c>
+      <c r="O24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q24">
+        <v>28341.93434028455</v>
+      </c>
+      <c r="R24">
+        <v>255077.4090625609</v>
+      </c>
+      <c r="S24">
+        <v>0.05819323223043531</v>
+      </c>
+      <c r="T24">
+        <v>0.0581932322304353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>447.0639343333333</v>
+      </c>
+      <c r="H25">
+        <v>1341.191803</v>
+      </c>
+      <c r="I25">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="J25">
+        <v>0.1912484595817072</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.883993</v>
+      </c>
+      <c r="O25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q25">
+        <v>727.8190419454864</v>
+      </c>
+      <c r="R25">
+        <v>6550.371377509379</v>
+      </c>
+      <c r="S25">
+        <v>0.001494398442292115</v>
+      </c>
+      <c r="T25">
+        <v>0.001494398442292115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="H21">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="I21">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="J21">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.35979924013071</v>
-      </c>
-      <c r="N21">
-        <v>1.35979924013071</v>
-      </c>
-      <c r="O21">
-        <v>0.006878803656433702</v>
-      </c>
-      <c r="P21">
-        <v>0.006878803656433702</v>
-      </c>
-      <c r="Q21">
-        <v>70.81255560787712</v>
-      </c>
-      <c r="R21">
-        <v>70.81255560787712</v>
-      </c>
-      <c r="S21">
-        <v>0.0001615810280255251</v>
-      </c>
-      <c r="T21">
-        <v>0.0001615810280255251</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H26">
+        <v>2530.484864</v>
+      </c>
+      <c r="I26">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J26">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>81.64918695179377</v>
+      </c>
+      <c r="R26">
+        <v>734.8426825661439</v>
+      </c>
+      <c r="S26">
+        <v>0.0001676466412159594</v>
+      </c>
+      <c r="T26">
+        <v>0.0001676466412159594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H27">
+        <v>2530.484864</v>
+      </c>
+      <c r="I27">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J27">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>37.47029520617244</v>
+      </c>
+      <c r="R27">
+        <v>337.232656855552</v>
+      </c>
+      <c r="S27">
+        <v>7.693608927660326E-05</v>
+      </c>
+      <c r="T27">
+        <v>7.693608927660326E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H28">
+        <v>2530.484864</v>
+      </c>
+      <c r="I28">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J28">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>51417.34201210342</v>
+      </c>
+      <c r="R28">
+        <v>462756.0781089308</v>
+      </c>
+      <c r="S28">
+        <v>0.105572939675084</v>
+      </c>
+      <c r="T28">
+        <v>0.105572939675084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H29">
+        <v>2530.484864</v>
+      </c>
+      <c r="I29">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J29">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>69355.23224228797</v>
+      </c>
+      <c r="R29">
+        <v>624197.0901805917</v>
+      </c>
+      <c r="S29">
+        <v>0.1424040112369662</v>
+      </c>
+      <c r="T29">
+        <v>0.1424040112369662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H30">
+        <v>2530.484864</v>
+      </c>
+      <c r="I30">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J30">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>53473.95928319126</v>
+      </c>
+      <c r="R30">
+        <v>481265.6335487214</v>
+      </c>
+      <c r="S30">
+        <v>0.1097957003740751</v>
+      </c>
+      <c r="T30">
+        <v>0.1097957003740751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H31">
+        <v>2530.484864</v>
+      </c>
+      <c r="I31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>1373.207818042439</v>
+      </c>
+      <c r="R31">
+        <v>12358.87036238195</v>
+      </c>
+      <c r="S31">
+        <v>0.00281954648883682</v>
+      </c>
+      <c r="T31">
+        <v>0.002819546488836821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.118235</v>
+      </c>
+      <c r="H32">
+        <v>168.354705</v>
+      </c>
+      <c r="I32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>5.432170323686666</v>
+      </c>
+      <c r="R32">
+        <v>48.88953291318</v>
+      </c>
+      <c r="S32">
+        <v>1.115363352995487E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.115363352995487E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.118235</v>
+      </c>
+      <c r="H33">
+        <v>168.354705</v>
+      </c>
+      <c r="I33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>2.492921647326666</v>
+      </c>
+      <c r="R33">
+        <v>22.43629482594</v>
+      </c>
+      <c r="S33">
+        <v>5.118605054029758E-06</v>
+      </c>
+      <c r="T33">
+        <v>5.118605054029758E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.118235</v>
+      </c>
+      <c r="H34">
+        <v>168.354705</v>
+      </c>
+      <c r="I34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>3420.82719777603</v>
+      </c>
+      <c r="R34">
+        <v>30787.44477998427</v>
+      </c>
+      <c r="S34">
+        <v>0.00702383221802253</v>
+      </c>
+      <c r="T34">
+        <v>0.00702383221802253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.118235</v>
+      </c>
+      <c r="H35">
+        <v>168.354705</v>
+      </c>
+      <c r="I35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>4614.246001021281</v>
+      </c>
+      <c r="R35">
+        <v>41528.21400919152</v>
+      </c>
+      <c r="S35">
+        <v>0.009474225925508686</v>
+      </c>
+      <c r="T35">
+        <v>0.009474225925508686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.118235</v>
+      </c>
+      <c r="H36">
+        <v>168.354705</v>
+      </c>
+      <c r="I36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>3557.655202123223</v>
+      </c>
+      <c r="R36">
+        <v>32018.89681910901</v>
+      </c>
+      <c r="S36">
+        <v>0.007304775068888061</v>
+      </c>
+      <c r="T36">
+        <v>0.007304775068888061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.118235</v>
+      </c>
+      <c r="H37">
+        <v>168.354705</v>
+      </c>
+      <c r="I37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>91.36035563745166</v>
+      </c>
+      <c r="R37">
+        <v>822.243200737065</v>
+      </c>
+      <c r="S37">
+        <v>0.0001875861516166368</v>
+      </c>
+      <c r="T37">
+        <v>0.0001875861516166369</v>
       </c>
     </row>
   </sheetData>
